--- a/TradeSimulation/report/BuySell_4ETFFunds.xlsx
+++ b/TradeSimulation/report/BuySell_4ETFFunds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60DCCE-DB83-42C8-9BC8-B45CEE28A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalPort" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="GLD" sheetId="5" r:id="rId5"/>
     <sheet name="QQQ" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>BuyValue</t>
   </si>
@@ -108,15 +114,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +130,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,13 +175,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +268,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +320,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,18 +536,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>600000</v>
       </c>
       <c r="B2">
-        <v>630272</v>
+        <v>626242</v>
       </c>
       <c r="C2">
-        <v>30272</v>
+        <v>26242</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -504,14 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -542,22 +594,22 @@
         <v>150000</v>
       </c>
       <c r="C2">
-        <v>270.33</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="D2">
-        <v>160009</v>
+        <v>158752</v>
       </c>
       <c r="E2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F2">
-        <v>10009</v>
+        <v>8752</v>
       </c>
       <c r="G2">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -565,22 +617,22 @@
         <v>150000</v>
       </c>
       <c r="C3">
-        <v>62.85</v>
+        <v>63.84</v>
       </c>
       <c r="D3">
-        <v>158938</v>
+        <v>157592</v>
       </c>
       <c r="E3">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>8938</v>
+        <v>7592</v>
       </c>
       <c r="G3">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -588,22 +640,22 @@
         <v>150000</v>
       </c>
       <c r="C4">
-        <v>163.11</v>
+        <v>163.69</v>
       </c>
       <c r="D4">
-        <v>156146</v>
+        <v>157065</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>6146</v>
+        <v>7065</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -611,19 +663,19 @@
         <v>150000</v>
       </c>
       <c r="C5">
-        <v>84.93000000000001</v>
+        <v>87.01</v>
       </c>
       <c r="D5">
-        <v>155179</v>
+        <v>152833</v>
       </c>
       <c r="E5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5">
-        <v>5179</v>
+        <v>2833</v>
       </c>
       <c r="G5">
-        <v>3.45</v>
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>
@@ -632,14 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -680,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44869</v>
       </c>
@@ -688,7 +740,7 @@
         <v>59.26</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -700,36 +752,36 @@
         <v>59.85</v>
       </c>
       <c r="G2">
-        <v>835.421888053467</v>
+        <v>626.56641604010019</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="J2">
-        <v>835.421888053467</v>
+        <v>626.56641604010019</v>
       </c>
       <c r="K2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="L2">
-        <v>835.421888053467</v>
+        <v>626.56641604010019</v>
       </c>
       <c r="M2">
         <v>59.85</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="B3">
-        <v>58.91</v>
+        <v>63.13</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -738,36 +790,36 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>59.5</v>
+        <v>63.76</v>
       </c>
       <c r="G3">
-        <v>420.1680672268907</v>
+        <v>1176.286072772898</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="J3">
-        <v>420.1680672268907</v>
+        <v>1176.286072772898</v>
       </c>
       <c r="K3">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="L3">
-        <v>1255.589955280358</v>
+        <v>1802.8524888129989</v>
       </c>
       <c r="M3">
-        <v>59.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44875</v>
+        <v>44930</v>
       </c>
       <c r="B4">
-        <v>61.56</v>
+        <v>67.92</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -779,36 +831,36 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>62.18</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G4">
-        <v>402.0585397233837</v>
+        <v>546.6472303206998</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="J4">
-        <v>402.0585397233837</v>
+        <v>546.6472303206998</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="L4">
-        <v>1657.648495003742</v>
+        <v>2349.4997191336979</v>
       </c>
       <c r="M4">
-        <v>60.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>63.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44910</v>
+        <v>44966</v>
       </c>
       <c r="B5">
-        <v>64.88</v>
+        <v>70.03</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -820,192 +872,69 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>64.23</v>
+        <v>69.33</v>
       </c>
       <c r="G5">
-        <v>795.5038229215581</v>
+        <v>1174.749859566849</v>
       </c>
       <c r="H5">
-        <v>51095</v>
+        <v>81445</v>
       </c>
       <c r="I5">
-        <v>-51095</v>
+        <v>-81445</v>
       </c>
       <c r="J5">
-        <v>-795.5038229215581</v>
+        <v>-1174.749859566849</v>
       </c>
       <c r="K5">
-        <v>48905</v>
+        <v>68555</v>
       </c>
       <c r="L5">
-        <v>862.1446720821834</v>
+        <v>1174.749859566849</v>
       </c>
       <c r="M5">
-        <v>56.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>58.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44930</v>
+        <v>44985</v>
       </c>
       <c r="B6">
-        <v>67.92</v>
+        <v>65.47</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>68.59999999999999</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="G6">
-        <v>728.862973760933</v>
+        <v>1174.749859566849</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>76147</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>-76147</v>
       </c>
       <c r="J6">
-        <v>728.862973760933</v>
+        <v>-1174.749859566849</v>
       </c>
       <c r="K6">
-        <v>98905</v>
+        <v>-7592</v>
       </c>
       <c r="L6">
-        <v>1591.007645843116</v>
-      </c>
-      <c r="M6">
-        <v>62.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B7">
-        <v>70.23999999999999</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>69.54000000000001</v>
-      </c>
-      <c r="G7">
-        <v>397.7519114607791</v>
-      </c>
-      <c r="H7">
-        <v>27660</v>
-      </c>
-      <c r="I7">
-        <v>-27660</v>
-      </c>
-      <c r="J7">
-        <v>-397.7519114607791</v>
-      </c>
-      <c r="K7">
-        <v>71245</v>
-      </c>
-      <c r="L7">
-        <v>1193.255734382337</v>
-      </c>
-      <c r="M7">
-        <v>59.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>44967</v>
-      </c>
-      <c r="B8">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>68.56999999999999</v>
-      </c>
-      <c r="G8">
-        <v>397.7519114607791</v>
-      </c>
-      <c r="H8">
-        <v>27274</v>
-      </c>
-      <c r="I8">
-        <v>-27274</v>
-      </c>
-      <c r="J8">
-        <v>-397.7519114607791</v>
-      </c>
-      <c r="K8">
-        <v>43971</v>
-      </c>
-      <c r="L8">
-        <v>795.5038229215583</v>
-      </c>
-      <c r="M8">
-        <v>55.27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B9">
-        <v>67.18000000000001</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="G9">
-        <v>795.5038229215581</v>
-      </c>
-      <c r="H9">
-        <v>52909</v>
-      </c>
-      <c r="I9">
-        <v>-52909</v>
-      </c>
-      <c r="J9">
-        <v>-795.5038229215581</v>
-      </c>
-      <c r="K9">
-        <v>-8938</v>
-      </c>
-      <c r="L9">
-        <v>1.13686837721616E-13</v>
-      </c>
-      <c r="M9">
-        <v>-7.86194794324951E+16</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1014,14 +943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44869</v>
       </c>
@@ -1070,7 +999,7 @@
         <v>82.33</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -1079,39 +1008,39 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="G2">
-        <v>601.3229104028864</v>
+        <v>450.99218280216468</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="J2">
-        <v>601.3229104028864</v>
+        <v>450.99218280216468</v>
       </c>
       <c r="K2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="L2">
-        <v>601.3229104028864</v>
+        <v>450.99218280216468</v>
       </c>
       <c r="M2">
-        <v>83.15000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>83.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="B3">
-        <v>81.89</v>
+        <v>88.29</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1120,36 +1049,36 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>82.70999999999999</v>
+        <v>89.17</v>
       </c>
       <c r="G3">
-        <v>302.2609116189095</v>
+        <v>841.09005270830994</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="J3">
-        <v>302.2609116189095</v>
+        <v>841.09005270830994</v>
       </c>
       <c r="K3">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="L3">
-        <v>903.5838220217959</v>
+        <v>1292.0822355104749</v>
       </c>
       <c r="M3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>87.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44875</v>
+        <v>44930</v>
       </c>
       <c r="B4">
-        <v>86.28</v>
+        <v>85.98</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1161,36 +1090,36 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>87.14</v>
+        <v>86.84</v>
       </c>
       <c r="G4">
-        <v>286.8946522836814</v>
+        <v>431.8286503915246</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="J4">
-        <v>286.8946522836814</v>
+        <v>431.8286503915246</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="L4">
-        <v>1190.478474305477</v>
+        <v>1723.9108859019991</v>
       </c>
       <c r="M4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>87.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44910</v>
+        <v>44966</v>
       </c>
       <c r="B5">
-        <v>85.75</v>
+        <v>90.88</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -1202,191 +1131,68 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>84.89</v>
+        <v>89.97</v>
       </c>
       <c r="G5">
-        <v>588.7500027202811</v>
+        <v>861.95544295099967</v>
       </c>
       <c r="H5">
-        <v>49979</v>
+        <v>77550</v>
       </c>
       <c r="I5">
-        <v>-49979</v>
+        <v>-77550</v>
       </c>
       <c r="J5">
-        <v>-588.7500027202811</v>
+        <v>-861.95544295099967</v>
       </c>
       <c r="K5">
-        <v>50021</v>
+        <v>72450</v>
       </c>
       <c r="L5">
-        <v>601.7284715851961</v>
+        <v>861.95544295099967</v>
       </c>
       <c r="M5">
-        <v>83.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>84.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44930</v>
+        <v>44985</v>
       </c>
       <c r="B6">
-        <v>85.98</v>
+        <v>88.22</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>86.84</v>
+        <v>87.34</v>
       </c>
       <c r="G6">
-        <v>575.7715338553662</v>
+        <v>861.95544295099967</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>75283</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>-75283</v>
       </c>
       <c r="J6">
-        <v>575.7715338553662</v>
+        <v>-861.95544295099967</v>
       </c>
       <c r="K6">
-        <v>100021</v>
+        <v>-2833</v>
       </c>
       <c r="L6">
-        <v>1177.500005440562</v>
-      </c>
-      <c r="M6">
-        <v>84.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B7">
-        <v>91.86</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>90.94</v>
-      </c>
-      <c r="G7">
-        <v>294.3750013601406</v>
-      </c>
-      <c r="H7">
-        <v>26770</v>
-      </c>
-      <c r="I7">
-        <v>-26770</v>
-      </c>
-      <c r="J7">
-        <v>-294.3750013601406</v>
-      </c>
-      <c r="K7">
-        <v>73251</v>
-      </c>
-      <c r="L7">
-        <v>883.1250040804217</v>
-      </c>
-      <c r="M7">
-        <v>82.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>44967</v>
-      </c>
-      <c r="B8">
-        <v>90.8</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>89.89</v>
-      </c>
-      <c r="G8">
-        <v>294.3750013601406</v>
-      </c>
-      <c r="H8">
-        <v>26461</v>
-      </c>
-      <c r="I8">
-        <v>-26461</v>
-      </c>
-      <c r="J8">
-        <v>-294.3750013601406</v>
-      </c>
-      <c r="K8">
-        <v>46790</v>
-      </c>
-      <c r="L8">
-        <v>588.7500027202811</v>
-      </c>
-      <c r="M8">
-        <v>79.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B9">
-        <v>89.16</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>88.27</v>
-      </c>
-      <c r="G9">
-        <v>588.7500027202811</v>
-      </c>
-      <c r="H9">
-        <v>51969</v>
-      </c>
-      <c r="I9">
-        <v>-51969</v>
-      </c>
-      <c r="J9">
-        <v>-588.7500027202811</v>
-      </c>
-      <c r="K9">
-        <v>-5179</v>
-      </c>
-      <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1396,14 +1202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44869</v>
       </c>
@@ -1452,7 +1258,7 @@
         <v>156.47</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -1464,36 +1270,36 @@
         <v>156.47</v>
       </c>
       <c r="G2">
-        <v>319.5500734965169</v>
+        <v>239.66255512238769</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="J2">
-        <v>319.5500734965169</v>
+        <v>239.66255512238769</v>
       </c>
       <c r="K2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="L2">
-        <v>319.5500734965169</v>
+        <v>239.66255512238769</v>
       </c>
       <c r="M2">
         <v>156.47</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="B3">
-        <v>158.65</v>
+        <v>163.22</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1502,36 +1308,36 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>158.65</v>
+        <v>163.22</v>
       </c>
       <c r="G3">
-        <v>157.5795776867318</v>
+        <v>459.50251194706527</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="J3">
-        <v>157.5795776867318</v>
+        <v>459.50251194706527</v>
       </c>
       <c r="K3">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="L3">
-        <v>477.1296511832487</v>
+        <v>699.16506706945302</v>
       </c>
       <c r="M3">
-        <v>157.19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>160.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44875</v>
+        <v>44930</v>
       </c>
       <c r="B4">
-        <v>163.48</v>
+        <v>172.67</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1543,36 +1349,36 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>163.48</v>
+        <v>172.67</v>
       </c>
       <c r="G4">
-        <v>152.9239050648397</v>
+        <v>217.17727456998901</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="J4">
-        <v>152.9239050648397</v>
+        <v>217.17727456998901</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="L4">
-        <v>630.0535562480884</v>
+        <v>916.342341639442</v>
       </c>
       <c r="M4">
-        <v>158.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>163.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44910</v>
+        <v>44966</v>
       </c>
       <c r="B5">
-        <v>165.35</v>
+        <v>173.03</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -1584,191 +1390,68 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>165.35</v>
+        <v>173.03</v>
       </c>
       <c r="G5">
-        <v>306.5410852249134</v>
+        <v>458.171170819721</v>
       </c>
       <c r="H5">
-        <v>50687</v>
+        <v>79277</v>
       </c>
       <c r="I5">
-        <v>-50687</v>
+        <v>-79277</v>
       </c>
       <c r="J5">
-        <v>-306.5410852249134</v>
+        <v>-458.171170819721</v>
       </c>
       <c r="K5">
-        <v>49313</v>
+        <v>70723</v>
       </c>
       <c r="L5">
-        <v>323.512471023175</v>
+        <v>458.171170819721</v>
       </c>
       <c r="M5">
-        <v>152.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>154.36000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44930</v>
+        <v>44985</v>
       </c>
       <c r="B6">
-        <v>172.67</v>
+        <v>169.78</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>172.67</v>
+        <v>169.78</v>
       </c>
       <c r="G6">
-        <v>289.569699426652</v>
+        <v>458.171170819721</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>77788</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>-77788</v>
       </c>
       <c r="J6">
-        <v>289.569699426652</v>
+        <v>-458.171170819721</v>
       </c>
       <c r="K6">
-        <v>99313</v>
+        <v>-7065</v>
       </c>
       <c r="L6">
-        <v>613.0821704498269</v>
-      </c>
-      <c r="M6">
-        <v>161.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B7">
-        <v>173.46</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>173.46</v>
-      </c>
-      <c r="G7">
-        <v>153.2705426124567</v>
-      </c>
-      <c r="H7">
-        <v>26586</v>
-      </c>
-      <c r="I7">
-        <v>-26586</v>
-      </c>
-      <c r="J7">
-        <v>-153.2705426124567</v>
-      </c>
-      <c r="K7">
-        <v>72727</v>
-      </c>
-      <c r="L7">
-        <v>459.8116278373702</v>
-      </c>
-      <c r="M7">
-        <v>158.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>44967</v>
-      </c>
-      <c r="B8">
-        <v>173.36</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>173.36</v>
-      </c>
-      <c r="G8">
-        <v>153.2705426124567</v>
-      </c>
-      <c r="H8">
-        <v>26571</v>
-      </c>
-      <c r="I8">
-        <v>-26571</v>
-      </c>
-      <c r="J8">
-        <v>-153.2705426124567</v>
-      </c>
-      <c r="K8">
-        <v>46156</v>
-      </c>
-      <c r="L8">
-        <v>306.5410852249134</v>
-      </c>
-      <c r="M8">
-        <v>150.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B9">
-        <v>170.62</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>170.62</v>
-      </c>
-      <c r="G9">
-        <v>306.5410852249134</v>
-      </c>
-      <c r="H9">
-        <v>52302</v>
-      </c>
-      <c r="I9">
-        <v>-52302</v>
-      </c>
-      <c r="J9">
-        <v>-306.5410852249134</v>
-      </c>
-      <c r="K9">
-        <v>-6146</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1778,14 +1461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44869</v>
       </c>
@@ -1834,7 +1517,7 @@
         <v>264.68</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -1846,36 +1529,36 @@
         <v>267.33</v>
       </c>
       <c r="G2">
-        <v>187.0347510567464</v>
+        <v>140.2760632925598</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="J2">
-        <v>187.0347510567464</v>
+        <v>140.2760632925598</v>
       </c>
       <c r="K2">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="L2">
-        <v>187.0347510567464</v>
+        <v>140.2760632925598</v>
       </c>
       <c r="M2">
         <v>267.33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="B3">
-        <v>263.32</v>
+        <v>286.92</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1884,36 +1567,36 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>265.95</v>
+        <v>289.79000000000002</v>
       </c>
       <c r="G3">
-        <v>94.00263207369807</v>
+        <v>258.80810241899297</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="J3">
-        <v>94.00263207369807</v>
+        <v>258.80810241899297</v>
       </c>
       <c r="K3">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="L3">
-        <v>281.0373831304444</v>
+        <v>399.08416571155283</v>
       </c>
       <c r="M3">
-        <v>266.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>281.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44875</v>
+        <v>44930</v>
       </c>
       <c r="B4">
-        <v>282.75</v>
+        <v>265.74</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1925,36 +1608,36 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>285.58</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="G4">
-        <v>87.54114433783879</v>
+        <v>139.71684053651271</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="J4">
-        <v>87.54114433783879</v>
+        <v>139.71684053651271</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="L4">
-        <v>368.5785274682832</v>
+        <v>538.80100624806551</v>
       </c>
       <c r="M4">
-        <v>271.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>278.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44910</v>
+        <v>44966</v>
       </c>
       <c r="B5">
-        <v>276.89</v>
+        <v>301.68</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -1966,192 +1649,69 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>274.12</v>
+        <v>298.66000000000003</v>
       </c>
       <c r="G5">
-        <v>184.9558827278778</v>
+        <v>269.40050312403281</v>
       </c>
       <c r="H5">
-        <v>50700</v>
+        <v>80459</v>
       </c>
       <c r="I5">
-        <v>-50700</v>
+        <v>-80459</v>
       </c>
       <c r="J5">
-        <v>-184.9558827278778</v>
+        <v>-269.40050312403281</v>
       </c>
       <c r="K5">
-        <v>49300</v>
+        <v>69541</v>
       </c>
       <c r="L5">
-        <v>183.6226447404054</v>
+        <v>269.40050312403281</v>
       </c>
       <c r="M5">
-        <v>268.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>258.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44930</v>
+        <v>44985</v>
       </c>
       <c r="B6">
-        <v>265.74</v>
+        <v>293.56</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>268.4</v>
+        <v>290.62</v>
       </c>
       <c r="G6">
-        <v>186.2891207153502</v>
+        <v>269.40050312403281</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>78293</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>-78293</v>
       </c>
       <c r="J6">
-        <v>186.2891207153502</v>
+        <v>-269.40050312403281</v>
       </c>
       <c r="K6">
-        <v>99300</v>
+        <v>-8752</v>
       </c>
       <c r="L6">
-        <v>369.9117654557556</v>
-      </c>
-      <c r="M6">
-        <v>268.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B7">
-        <v>306.18</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>303.12</v>
-      </c>
-      <c r="G7">
-        <v>92.47794136393891</v>
-      </c>
-      <c r="H7">
-        <v>28032</v>
-      </c>
-      <c r="I7">
-        <v>-28032</v>
-      </c>
-      <c r="J7">
-        <v>-92.47794136393891</v>
-      </c>
-      <c r="K7">
-        <v>71268</v>
-      </c>
-      <c r="L7">
-        <v>277.4338240918167</v>
-      </c>
-      <c r="M7">
-        <v>256.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>44967</v>
-      </c>
-      <c r="B8">
-        <v>299.7</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>296.7</v>
-      </c>
-      <c r="G8">
-        <v>92.47794136393891</v>
-      </c>
-      <c r="H8">
-        <v>27438</v>
-      </c>
-      <c r="I8">
-        <v>-27438</v>
-      </c>
-      <c r="J8">
-        <v>-92.47794136393891</v>
-      </c>
-      <c r="K8">
-        <v>43830</v>
-      </c>
-      <c r="L8">
-        <v>184.9558827278778</v>
-      </c>
-      <c r="M8">
-        <v>236.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B9">
-        <v>294.03</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>291.09</v>
-      </c>
-      <c r="G9">
-        <v>184.9558827278778</v>
-      </c>
-      <c r="H9">
-        <v>53839</v>
-      </c>
-      <c r="I9">
-        <v>-53839</v>
-      </c>
-      <c r="J9">
-        <v>-184.9558827278778</v>
-      </c>
-      <c r="K9">
-        <v>-10009</v>
-      </c>
-      <c r="L9">
-        <v>-2.842170943040401E-14</v>
-      </c>
-      <c r="M9">
-        <v>3.521603802371195E+17</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
